--- a/data/map_province22.xlsx
+++ b/data/map_province22.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2023\0324asthma registry\registry\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2023\0324asthmaregistry\asthmaapp0417\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{842EB566-9C5E-4FC5-A65A-923B27BFA8B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3C434D-0AB1-4C48-90A9-307CB0438F43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8610" xr2:uid="{EA7FF538-A4A2-449C-A71C-72F87EB59E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
-  <si>
-    <t>广西省</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>河南省</t>
   </si>
@@ -63,9 +61,6 @@
     <t>上海市</t>
   </si>
   <si>
-    <t>新疆自治区</t>
-  </si>
-  <si>
     <t>广东省</t>
   </si>
   <si>
@@ -126,47 +121,101 @@
     <t>Shanghai</t>
   </si>
   <si>
+    <t>Guangdong</t>
+  </si>
+  <si>
+    <t>Guizhou</t>
+  </si>
+  <si>
+    <t>Zhejiang</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>Jiangxi</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Jilin</t>
+  </si>
+  <si>
+    <t>Jiangsu</t>
+  </si>
+  <si>
+    <t>Shanxi</t>
+  </si>
+  <si>
+    <t>province_en</t>
+  </si>
+  <si>
+    <t>province_cn</t>
+  </si>
+  <si>
+    <t>甘肃省</t>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>广西壮族自治区</t>
+  </si>
+  <si>
+    <t>海南省</t>
+  </si>
+  <si>
+    <t>陕西省</t>
+  </si>
+  <si>
+    <t>天津市</t>
+  </si>
+  <si>
+    <t>西藏自治区</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区</t>
+  </si>
+  <si>
+    <t>Anhui</t>
+  </si>
+  <si>
+    <t>Fujian</t>
+  </si>
+  <si>
+    <t>Gansu</t>
+  </si>
+  <si>
+    <t>Hainan</t>
+  </si>
+  <si>
+    <t>Tianjing</t>
+  </si>
+  <si>
+    <t>Xizang</t>
+  </si>
+  <si>
+    <t>Xinijiang</t>
+  </si>
+  <si>
+    <t>Shaanxi</t>
+  </si>
+  <si>
     <t>Xinjiang</t>
   </si>
   <si>
-    <t>Guangdong</t>
-  </si>
-  <si>
-    <t>Guizhou</t>
-  </si>
-  <si>
-    <t>Zhejiang</t>
-  </si>
-  <si>
-    <t>Shandong</t>
-  </si>
-  <si>
-    <t>Jiangxi</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>Jilin</t>
-  </si>
-  <si>
-    <t>Jiangsu</t>
-  </si>
-  <si>
-    <t>Shanxi</t>
-  </si>
-  <si>
-    <t>province_en</t>
-  </si>
-  <si>
-    <t>province_cn</t>
+    <t>Hubei</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,16 +230,34 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF202020"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4E5C68"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,13 +265,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0C1F30"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0C1F30"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -519,140 +606,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D13977-BE88-430C-B7B5-7A360F23A94F}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -660,31 +747,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -692,27 +779,502 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58242726-002C-479B-BC53-9F8BD8321314}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>492</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A16" s="4">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>202</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A21" s="4">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A22" s="4">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A23" s="4">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>262</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A24" s="4">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A25" s="4">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A26" s="4">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A27" s="4">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A28" s="4">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A29" s="4">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>